--- a/codigo organizado/tabla_parametros_tsfresh.xlsx
+++ b/codigo organizado/tabla_parametros_tsfresh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>lags_used</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>steps_forecasted</t>
         </is>
       </c>
@@ -470,9 +465,6 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -491,9 +483,6 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -508,13 +497,10 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'base_estimator__learning_rate': 0.1, 'base_estimator__loss': 'exponential', 'base_estimator__n_estimators': 20}</t>
+          <t>{'base_estimator__learning_rate': 0.1, 'base_estimator__loss': 'linear', 'base_estimator__n_estimators': 20}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -533,9 +519,6 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -554,9 +537,6 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
-      </c>
-      <c r="E6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -575,9 +555,6 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
         <v>6</v>
       </c>
     </row>
